--- a/tuition.xlsx
+++ b/tuition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B1124D-DD4B-4952-854D-0FA990D01E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6037E7F-72A0-4CE4-B6AF-A14CED2BA11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="74">
   <si>
     <t>الطب البشري</t>
   </si>
@@ -108,96 +108,21 @@
     <t>الإعلام</t>
   </si>
   <si>
-    <t>470,000‎</t>
-  </si>
-  <si>
-    <t>425,000‎</t>
-  </si>
-  <si>
-    <t>375,000‎</t>
-  </si>
-  <si>
     <t>225,000‎</t>
   </si>
   <si>
     <t>205,000‎</t>
   </si>
   <si>
-    <t>190,000‎</t>
-  </si>
-  <si>
-    <t>130,000‎</t>
-  </si>
-  <si>
-    <t>170,000‎</t>
-  </si>
-  <si>
-    <t>60,000‎</t>
-  </si>
-  <si>
-    <t>130,000‎‎</t>
-  </si>
-  <si>
-    <t>165,000‎</t>
-  </si>
-  <si>
-    <t>95,000‎</t>
-  </si>
-  <si>
-    <t>105,000‎</t>
-  </si>
-  <si>
-    <t>21,080,000‎</t>
-  </si>
-  <si>
-    <t>15,700,000‎</t>
-  </si>
-  <si>
-    <t>13,900,000‎</t>
-  </si>
-  <si>
-    <t>8,500,000‎</t>
-  </si>
-  <si>
-    <t>7,780,000‎</t>
-  </si>
-  <si>
-    <t>8,500,000‎‎</t>
-  </si>
-  <si>
     <t>7,240,000‎</t>
   </si>
   <si>
-    <t>5,080,000‎</t>
-  </si>
-  <si>
-    <t>6,120,000‎</t>
-  </si>
-  <si>
-    <t>4,290,000‎</t>
-  </si>
-  <si>
-    <t>3,000,000‎</t>
-  </si>
-  <si>
     <t>7,140‎</t>
   </si>
   <si>
     <t>5,400‎</t>
   </si>
   <si>
-    <t>4,290‎</t>
-  </si>
-  <si>
-    <t>2,250‎</t>
-  </si>
-  <si>
-    <t>22,50‎‎‎</t>
-  </si>
-  <si>
-    <t>1,620‎</t>
-  </si>
-  <si>
     <t>10,500‎</t>
   </si>
   <si>
@@ -207,18 +132,12 @@
     <t>5,775‎</t>
   </si>
   <si>
-    <t>2,770‎</t>
-  </si>
-  <si>
     <t>3,380‎</t>
   </si>
   <si>
     <t>3,380‎‎</t>
   </si>
   <si>
-    <t>1,800‎</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -258,9 +177,6 @@
     <t>علاج وظيفي</t>
   </si>
   <si>
-    <t>145,000‎</t>
-  </si>
-  <si>
     <t>فنون أداء</t>
   </si>
   <si>
@@ -277,13 +193,67 @@
   </si>
   <si>
     <t>التمويل</t>
+  </si>
+  <si>
+    <t>700,000‎</t>
+  </si>
+  <si>
+    <t>31,500,000‎</t>
+  </si>
+  <si>
+    <t>600,000‎</t>
+  </si>
+  <si>
+    <t>22,200,000‎</t>
+  </si>
+  <si>
+    <t>500,000‎</t>
+  </si>
+  <si>
+    <t>350,000‎</t>
+  </si>
+  <si>
+    <t>125,000‎</t>
+  </si>
+  <si>
+    <t>150,000‎</t>
+  </si>
+  <si>
+    <t>6,750,000‎</t>
+  </si>
+  <si>
+    <t>2,300‎</t>
+  </si>
+  <si>
+    <t>2,500‎</t>
+  </si>
+  <si>
+    <t>2,800‎</t>
+  </si>
+  <si>
+    <t>5,000‎</t>
+  </si>
+  <si>
+    <t>12,000,000‎</t>
+  </si>
+  <si>
+    <t>100,000‎</t>
+  </si>
+  <si>
+    <t>17,500,000‎</t>
+  </si>
+  <si>
+    <t>8500,000‎</t>
+  </si>
+  <si>
+    <t>250,000‎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +264,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -318,12 +294,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,408 +600,408 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>37</v>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,353 +1012,353 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
